--- a/REGULAR/OJT/NEW DONE/MARUNDAN, MARIA FLOR M..xlsx
+++ b/REGULAR/OJT/NEW DONE/MARUNDAN, MARIA FLOR M..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9CA98-8D52-4610-ABF2-F78827038A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A2AD29-E2C8-48EE-8BA3-8086A92F56D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>1/7,9,10</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>4/19,20,21/2023</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2669,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3041,11 +3047,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A85" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3208,7 +3214,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>62.5</v>
+        <v>60.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3218,7 +3224,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>58.5</v>
+        <v>59.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5054,13 +5060,15 @@
         <v>44986</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -5071,7 +5079,9 @@
       <c r="A95" s="40">
         <v>45017</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -5083,15 +5093,19 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="49">
+        <v>45033</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="39"/>
+      <c r="D96" s="39">
+        <v>3</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
@@ -5101,11 +5115,13 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="49" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5123,7 +5139,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5141,7 +5157,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5159,7 +5175,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5177,7 +5193,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5195,7 +5211,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5213,7 +5229,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5231,7 +5247,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5248,7 +5264,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45292</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5792,20 +5810,36 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="41"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H139" s="43"/>
+      <c r="H139" s="39"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="41"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/MARUNDAN, MARIA FLOR M..xlsx
+++ b/REGULAR/OJT/NEW DONE/MARUNDAN, MARIA FLOR M..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A2AD29-E2C8-48EE-8BA3-8086A92F56D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05957DEB-938E-4FF7-B40A-6C6B8D3E77A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2652,7 +2652,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3050,8 +3050,8 @@
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A85" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <pane ySplit="3576" topLeftCell="A88" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3214,7 +3214,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.75</v>
+        <v>62</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3224,7 +3224,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.75</v>
+        <v>60</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5124,13 +5124,15 @@
         <v>45047</v>
       </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -5141,7 +5143,9 @@
       <c r="A98" s="40">
         <v>45078</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
@@ -5150,10 +5154,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="39"/>
+      <c r="H98" s="39">
+        <v>1</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="49">
+        <v>45097</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
